--- a/API_List.xlsx
+++ b/API_List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="17832" windowHeight="8376"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="17835" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="로그인화면" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="154">
   <si>
     <t>방식</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rowid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>해당 사용자 닉네임변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,10 +305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rowid, alertAgree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -486,47 +478,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/user/auth/nicname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/auth/mail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contentid</t>
-  </si>
-  <si>
-    <t>contentid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contentid, content</t>
-  </si>
-  <si>
-    <t>contentid, commentid</t>
-  </si>
-  <si>
-    <t>contentid, id, nicname, comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contentid, nicname, comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contentid, nicname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardid, id, nicname, content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게시글수정/삭제(댓글전체삭제)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -535,43 +486,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rowid, nicname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rowid, nicname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id, password</t>
   </si>
   <si>
-    <t>id, password, mail, nicname</t>
-  </si>
-  <si>
-    <t>/user/password</t>
-  </si>
-  <si>
     <t>nicname, password</t>
   </si>
   <si>
     <t>현재 password검증</t>
   </si>
   <si>
-    <t>rowid, id, password</t>
+    <t>id, nicname, mail, phonenumber</t>
+  </si>
+  <si>
+    <t>router.</t>
+  </si>
+  <si>
+    <t>/contents/content/:row_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/contents/list/:board_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/contents/content/:content_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/login</t>
+  </si>
+  <si>
+    <t>/users/auth/mail</t>
+  </si>
+  <si>
+    <t>/users/auth/nicname</t>
+  </si>
+  <si>
+    <t>/users</t>
+  </si>
+  <si>
+    <t>/users/nicname</t>
+  </si>
+  <si>
+    <t>/users/password</t>
+  </si>
+  <si>
+    <t>/users/setting</t>
+  </si>
+  <si>
+    <t>/users/find</t>
+  </si>
+  <si>
+    <t>content_id</t>
+  </si>
+  <si>
+    <t>content_id, id, nicname, comment</t>
+  </si>
+  <si>
+    <t>content_id, nicname, comment</t>
+  </si>
+  <si>
+    <t>content_id, nicname</t>
+  </si>
+  <si>
+    <t>content_id, title, content</t>
+  </si>
+  <si>
+    <t>content_id, comment_id</t>
+  </si>
+  <si>
+    <t>row_id</t>
+  </si>
+  <si>
+    <t>row_id, nicname</t>
+  </si>
+  <si>
+    <t>row_id, id, password</t>
+  </si>
+  <si>
+    <t>row_id, alertAgree</t>
+  </si>
+  <si>
+    <t>board_id</t>
+  </si>
+  <si>
+    <t>board_id, id, nicname, content</t>
+  </si>
+  <si>
+    <t>user_id, password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id, password, mail, nicname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mail, phonenumber</t>
-  </si>
-  <si>
-    <t>id, nicname, mail, phonenumber</t>
-  </si>
-  <si>
-    <t>rowid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>router.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -963,18 +974,18 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -994,7 +1005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1005,16 +1016,16 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1025,16 +1036,16 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1045,7 +1056,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1054,7 +1065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1065,16 +1076,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1085,36 +1096,36 @@
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" t="s">
         <v>66</v>
       </c>
-      <c r="E7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1125,16 +1136,16 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1145,36 +1156,36 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1185,56 +1196,56 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1248,13 +1259,13 @@
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1265,16 +1276,16 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1285,16 +1296,16 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1305,36 +1316,36 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1345,16 +1356,16 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="17.45" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1365,10 +1376,10 @@
         <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1379,16 +1390,16 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="17.45" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1399,44 +1410,44 @@
         <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="17.45" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -1447,141 +1458,141 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17.45" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E27" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="F27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17.45" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1606,13 +1617,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1620,31 +1631,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" t="str">
         <f>CONCATENATE(A2," ",B2)</f>
         <v>POST /user/login</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C32" si="0">CONCATENATE(A3," ",B3)</f>
         <v>GET /user/auth</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1656,19 +1667,19 @@
         <v>GET /nicname</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>POST /user</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1680,19 +1691,19 @@
         <v>DELETE /user</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>GET /user</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1704,7 +1715,7 @@
         <v>GET /contents/list</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1716,55 +1727,55 @@
         <v>GET /contents</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>GET /comments/list</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>POST /comments</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v>PUT /comments</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v>DELETE /comments</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1776,67 +1787,67 @@
         <v>POST /contents</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>GET /contents/content</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v>PUT /contents/content</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v>DELETE /contents/content</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
         <v>DELETE /comments/list</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
         <v>GET /contents/contentlist</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1845,19 +1856,19 @@
         <v xml:space="preserve">DELETE </v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
         <v>GET /comments/commentlist</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1866,7 +1877,7 @@
         <v xml:space="preserve">DELETE </v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1878,16 +1889,16 @@
         <v>GET /user/nicname</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">GET </v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1899,49 +1910,49 @@
         <v>PUT /user/nicname</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">GET </v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
         <v>GET /user/pw</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
         <v>PUT /user/pw</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">GET </v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1953,7 +1964,7 @@
         <v>GET /user/setting</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -1965,12 +1976,12 @@
         <v>PUT /user/setting</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -1991,224 +2002,224 @@
       <selection activeCell="B3" sqref="B3:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>97</v>
       </c>
-      <c r="B3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>98</v>
       </c>
-      <c r="B4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>99</v>
       </c>
-      <c r="B5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>100</v>
       </c>
-      <c r="B6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>101</v>
       </c>
-      <c r="B7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>102</v>
       </c>
-      <c r="B8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>103</v>
       </c>
-      <c r="B9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>104</v>
       </c>
-      <c r="B10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>105</v>
       </c>
-      <c r="B11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>106</v>
       </c>
-      <c r="B12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>107</v>
       </c>
-      <c r="B13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>108</v>
       </c>
-      <c r="B14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>109</v>
       </c>
-      <c r="B15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>110</v>
       </c>
-      <c r="B16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+      <c r="B18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>111</v>
       </c>
-      <c r="B17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>112</v>
       </c>
-      <c r="B18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>113</v>
       </c>
-      <c r="B19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>114</v>
       </c>
-      <c r="B20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>115</v>
       </c>
-      <c r="B21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>116</v>
       </c>
-      <c r="B22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>117</v>
       </c>
-      <c r="B23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>118</v>
       </c>
-      <c r="B24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>119</v>
       </c>
-      <c r="B25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>121</v>
-      </c>
       <c r="B27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
